--- a/usable.xlsx
+++ b/usable.xlsx
@@ -3765,8 +3765,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:K436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B179" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/usable.xlsx
+++ b/usable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="951">
   <si>
     <t>abortive mission into Democratic headquarters</t>
   </si>
@@ -2869,6 +2869,9 @@
   </si>
   <si>
     <t>Скандал Уотергейт</t>
+  </si>
+  <si>
+    <t>Политика</t>
   </si>
 </sst>
 </file>
@@ -3763,10 +3766,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:K436"/>
+  <dimension ref="A1:L436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B179" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3784,7 +3787,7 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>386</v>
       </c>
@@ -3797,8 +3800,14 @@
       <c r="D1" s="4" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="7">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>386</v>
       </c>
@@ -3811,8 +3820,11 @@
       <c r="D2" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3825,8 +3837,11 @@
       <c r="D3" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3845,8 +3860,11 @@
       <c r="F4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L4" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -3859,8 +3877,11 @@
       <c r="D5" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -3873,8 +3894,11 @@
       <c r="D6" s="4" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L6" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -3887,8 +3911,11 @@
       <c r="D7" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L7" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -3901,8 +3928,11 @@
       <c r="D8" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -3915,8 +3945,11 @@
       <c r="D9" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L9" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -3929,8 +3962,11 @@
       <c r="D10" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L10" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -3943,8 +3979,11 @@
       <c r="D11" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L11" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -3957,8 +3996,11 @@
       <c r="D12" s="4" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L12" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -3974,8 +4016,11 @@
       <c r="K13" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -3991,8 +4036,11 @@
       <c r="K14" s="4" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -4005,8 +4053,11 @@
       <c r="D15" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>488</v>
       </c>
@@ -4019,8 +4070,11 @@
       <c r="D16" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="L16" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>370</v>
       </c>
@@ -4036,8 +4090,11 @@
       <c r="K17" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L17" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>370</v>
       </c>
@@ -4050,8 +4107,11 @@
       <c r="D18" s="4" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>370</v>
       </c>
@@ -4064,8 +4124,11 @@
       <c r="D19" s="4" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>370</v>
       </c>
@@ -4078,8 +4141,11 @@
       <c r="D20" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>370</v>
       </c>
@@ -4092,8 +4158,11 @@
       <c r="D21" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>370</v>
       </c>
@@ -4106,8 +4175,11 @@
       <c r="D22" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>370</v>
       </c>
@@ -4120,8 +4192,11 @@
       <c r="D23" s="4" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>333</v>
       </c>
@@ -4134,8 +4209,11 @@
       <c r="G24" s="4" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L24" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>366</v>
       </c>
@@ -4148,8 +4226,11 @@
       <c r="D25" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L25" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>366</v>
       </c>
@@ -4162,8 +4243,11 @@
       <c r="D26" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L26" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>366</v>
       </c>
@@ -4176,8 +4260,11 @@
       <c r="D27" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L27" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>366</v>
       </c>
@@ -4190,8 +4277,11 @@
       <c r="D28" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L28" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>366</v>
       </c>
@@ -4204,8 +4294,11 @@
       <c r="D29" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L29" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>423</v>
       </c>
@@ -4218,8 +4311,11 @@
       <c r="D30" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>321</v>
       </c>
@@ -4229,8 +4325,11 @@
       <c r="C31" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L31" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>413</v>
       </c>
@@ -4246,8 +4345,11 @@
       <c r="E32" s="5" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L32" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>413</v>
       </c>
@@ -4263,8 +4365,11 @@
       <c r="E33" s="5" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>444</v>
       </c>
@@ -4280,8 +4385,11 @@
       <c r="K34" s="4" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>444</v>
       </c>
@@ -4297,8 +4405,11 @@
       <c r="K35" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -4314,8 +4425,11 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="L36" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>369</v>
       </c>
@@ -4333,8 +4447,11 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>369</v>
       </c>
@@ -4347,8 +4464,11 @@
       <c r="D38" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L38" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>441</v>
       </c>
@@ -4367,8 +4487,11 @@
       <c r="K39" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>441</v>
       </c>
@@ -4381,8 +4504,11 @@
       <c r="D40" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>361</v>
       </c>
@@ -4392,8 +4518,11 @@
       <c r="C41" s="4" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
@@ -4406,8 +4535,11 @@
       <c r="D42" s="4" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
@@ -4420,8 +4552,11 @@
       <c r="D43" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
@@ -4434,8 +4569,11 @@
       <c r="D44" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
@@ -4448,8 +4586,11 @@
       <c r="D45" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>16</v>
       </c>
@@ -4462,8 +4603,11 @@
       <c r="D46" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
@@ -4476,8 +4620,11 @@
       <c r="D47" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -4490,8 +4637,11 @@
       <c r="D48" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
@@ -4507,8 +4657,11 @@
       <c r="K49" s="4" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4524,8 +4677,11 @@
       <c r="K50" s="4" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L50" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>16</v>
       </c>
@@ -4538,8 +4694,11 @@
       <c r="D51" s="4" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L51" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
@@ -4552,8 +4711,11 @@
       <c r="D52" s="4" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>409</v>
       </c>
@@ -4566,8 +4728,11 @@
       <c r="D53" s="4" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>409</v>
       </c>
@@ -4580,8 +4745,11 @@
       <c r="D54" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>372</v>
       </c>
@@ -4594,8 +4762,11 @@
       <c r="D55" s="4" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>372</v>
       </c>
@@ -4605,8 +4776,11 @@
       <c r="C56" s="4" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>405</v>
       </c>
@@ -4619,8 +4793,11 @@
       <c r="D57" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>405</v>
       </c>
@@ -4630,8 +4807,11 @@
       <c r="C58" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>405</v>
       </c>
@@ -4647,8 +4827,11 @@
       <c r="F59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>405</v>
       </c>
@@ -4661,8 +4844,11 @@
       <c r="D60" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>405</v>
       </c>
@@ -4675,8 +4861,11 @@
       <c r="D61" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>382</v>
       </c>
@@ -4689,8 +4878,11 @@
       <c r="D62" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>274</v>
       </c>
@@ -4701,8 +4893,11 @@
         <v>523</v>
       </c>
       <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>274</v>
       </c>
@@ -4718,8 +4913,11 @@
       <c r="F64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>274</v>
       </c>
@@ -4735,16 +4933,22 @@
       <c r="F65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>472</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>472</v>
       </c>
@@ -4754,8 +4958,11 @@
       <c r="C67" s="4" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L67" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>451</v>
       </c>
@@ -4768,8 +4975,11 @@
       <c r="K68" s="4" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>31</v>
       </c>
@@ -4782,8 +4992,11 @@
       <c r="D69" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>31</v>
       </c>
@@ -4799,8 +5012,11 @@
       <c r="K70" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L70" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>31</v>
       </c>
@@ -4813,8 +5029,11 @@
       <c r="D71" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L71" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
@@ -4827,8 +5046,11 @@
       <c r="D72" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>31</v>
       </c>
@@ -4841,8 +5063,11 @@
       <c r="K73" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L73" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>31</v>
       </c>
@@ -4855,8 +5080,11 @@
       <c r="D74" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>402</v>
       </c>
@@ -4866,8 +5094,11 @@
       <c r="C75" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>478</v>
       </c>
@@ -4880,8 +5111,11 @@
       <c r="D76" s="4" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L76" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>478</v>
       </c>
@@ -4897,8 +5131,11 @@
       <c r="K77" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L77" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>478</v>
       </c>
@@ -4914,8 +5151,11 @@
       <c r="K78" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>500</v>
       </c>
@@ -4928,8 +5168,11 @@
       <c r="D79" s="4" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>375</v>
       </c>
@@ -4942,8 +5185,11 @@
       <c r="D80" s="4" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L80" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>375</v>
       </c>
@@ -4956,8 +5202,11 @@
       <c r="D81" s="4" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>375</v>
       </c>
@@ -4973,8 +5222,11 @@
       <c r="K82" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>278</v>
       </c>
@@ -4987,8 +5239,11 @@
       <c r="D83" s="4" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>426</v>
       </c>
@@ -5005,8 +5260,11 @@
       <c r="F84" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>426</v>
       </c>
@@ -5016,8 +5274,11 @@
       <c r="C85" s="4" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>466</v>
       </c>
@@ -5030,8 +5291,11 @@
       <c r="D86" s="4" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>492</v>
       </c>
@@ -5041,8 +5305,11 @@
       <c r="C87" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L87" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>387</v>
       </c>
@@ -5061,8 +5328,11 @@
       <c r="H88" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L88" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>387</v>
       </c>
@@ -5075,8 +5345,11 @@
       <c r="D89" s="4" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L89" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>387</v>
       </c>
@@ -5089,8 +5362,11 @@
       <c r="D90" s="4" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>387</v>
       </c>
@@ -5103,8 +5379,11 @@
       <c r="D91" s="4" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L91" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>387</v>
       </c>
@@ -5117,8 +5396,11 @@
       <c r="D92" s="4" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L92" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>387</v>
       </c>
@@ -5140,8 +5422,11 @@
       <c r="H93" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>387</v>
       </c>
@@ -5154,8 +5439,11 @@
       <c r="D94" s="4" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>387</v>
       </c>
@@ -5168,8 +5456,11 @@
       <c r="D95" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L95" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>387</v>
       </c>
@@ -5182,8 +5473,11 @@
       <c r="D96" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L96" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>392</v>
       </c>
@@ -5199,8 +5493,11 @@
       <c r="F97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L97" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>392</v>
       </c>
@@ -5219,8 +5516,11 @@
       <c r="H98" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L98" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>379</v>
       </c>
@@ -5233,8 +5533,11 @@
       <c r="F99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L99" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>476</v>
       </c>
@@ -5244,8 +5547,11 @@
       <c r="C100" s="4" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L100" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>389</v>
       </c>
@@ -5255,8 +5561,11 @@
       <c r="C101" s="4" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L101" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>437</v>
       </c>
@@ -5269,8 +5578,11 @@
       <c r="D102" s="4" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L102" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>390</v>
       </c>
@@ -5283,8 +5595,11 @@
       <c r="D103" s="4" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L103" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>390</v>
       </c>
@@ -5297,8 +5612,11 @@
       <c r="D104" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L104" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>280</v>
       </c>
@@ -5308,8 +5626,11 @@
       <c r="C105" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L105" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>391</v>
       </c>
@@ -5319,8 +5640,11 @@
       <c r="C106" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L106" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>452</v>
       </c>
@@ -5333,8 +5657,11 @@
       <c r="D107" s="4" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L107" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>282</v>
       </c>
@@ -5344,8 +5671,11 @@
       <c r="C108" s="4" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L108" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>393</v>
       </c>
@@ -5358,8 +5688,11 @@
       <c r="D109" s="4" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L109" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>393</v>
       </c>
@@ -5372,8 +5705,11 @@
       <c r="D110" s="4" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L110" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>393</v>
       </c>
@@ -5386,8 +5722,11 @@
       <c r="D111" s="4" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L111" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>393</v>
       </c>
@@ -5400,8 +5739,11 @@
       <c r="D112" s="4" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L112" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>393</v>
       </c>
@@ -5414,8 +5756,11 @@
       <c r="D113" s="4" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L113" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>393</v>
       </c>
@@ -5428,8 +5773,11 @@
       <c r="D114" s="4" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L114" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>393</v>
       </c>
@@ -5447,8 +5795,11 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L115" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>429</v>
       </c>
@@ -5466,8 +5817,11 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L116" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>69</v>
       </c>
@@ -5480,8 +5834,11 @@
       <c r="D117" s="4" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L117" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>69</v>
       </c>
@@ -5494,8 +5851,11 @@
       <c r="D118" s="4" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L118" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>69</v>
       </c>
@@ -5508,8 +5868,11 @@
       <c r="D119" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L119" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>467</v>
       </c>
@@ -5519,8 +5882,11 @@
       <c r="C120" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L120" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>499</v>
       </c>
@@ -5533,8 +5899,11 @@
       <c r="D121" s="4" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L121" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>394</v>
       </c>
@@ -5547,16 +5916,22 @@
       <c r="D122" s="4" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L122" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>346</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L123" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>453</v>
       </c>
@@ -5569,8 +5944,11 @@
       <c r="D124" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L124" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>383</v>
       </c>
@@ -5583,8 +5961,11 @@
       <c r="D125" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L125" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>383</v>
       </c>
@@ -5603,8 +5984,11 @@
       <c r="H126" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L126" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>383</v>
       </c>
@@ -5617,8 +6001,11 @@
       <c r="D127" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L127" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>383</v>
       </c>
@@ -5631,8 +6018,11 @@
       <c r="D128" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L128" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>395</v>
       </c>
@@ -5650,8 +6040,11 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L129" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>380</v>
       </c>
@@ -5667,8 +6060,11 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>397</v>
       </c>
@@ -5686,8 +6082,11 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L131" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>397</v>
       </c>
@@ -5705,8 +6104,11 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L132" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>399</v>
       </c>
@@ -5719,8 +6121,11 @@
       <c r="D133" s="4" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L133" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>399</v>
       </c>
@@ -5733,8 +6138,11 @@
       <c r="D134" s="4" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L134" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>399</v>
       </c>
@@ -5747,8 +6155,11 @@
       <c r="D135" s="4" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L135" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>399</v>
       </c>
@@ -5761,8 +6172,11 @@
       <c r="D136" s="4" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L136" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>399</v>
       </c>
@@ -5775,8 +6189,11 @@
       <c r="D137" s="4" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L137" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>401</v>
       </c>
@@ -5789,8 +6206,11 @@
       <c r="D138" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L138" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>420</v>
       </c>
@@ -5803,8 +6223,11 @@
       <c r="D139" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L139" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>420</v>
       </c>
@@ -5822,8 +6245,11 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L140" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>420</v>
       </c>
@@ -5841,8 +6267,11 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L141" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>450</v>
       </c>
@@ -5861,8 +6290,11 @@
       <c r="H142" s="4" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L142" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>400</v>
       </c>
@@ -5875,8 +6307,11 @@
       <c r="D143" s="4" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L143" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>400</v>
       </c>
@@ -5889,8 +6324,11 @@
       <c r="D144" s="4" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L144" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>433</v>
       </c>
@@ -5903,8 +6341,11 @@
       <c r="D145" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L145" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>477</v>
       </c>
@@ -5923,8 +6364,11 @@
       <c r="H146" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L146" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>454</v>
       </c>
@@ -5937,8 +6381,11 @@
       <c r="D147" s="4" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L147" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>406</v>
       </c>
@@ -5951,8 +6398,11 @@
       <c r="D148" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L148" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>287</v>
       </c>
@@ -5971,8 +6421,11 @@
       <c r="F149" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L149" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>85</v>
       </c>
@@ -5986,8 +6439,11 @@
         <v>617</v>
       </c>
       <c r="E150" s="5"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L150" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>408</v>
       </c>
@@ -6000,8 +6456,11 @@
       <c r="D151" s="4" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L151" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>410</v>
       </c>
@@ -6014,8 +6473,11 @@
       <c r="D152" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L152" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>334</v>
       </c>
@@ -6031,8 +6493,11 @@
       <c r="G153" s="4" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L153" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>491</v>
       </c>
@@ -6045,8 +6510,11 @@
       <c r="D154" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L154" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>411</v>
       </c>
@@ -6059,8 +6527,11 @@
       <c r="D155" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L155" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>412</v>
       </c>
@@ -6073,8 +6544,11 @@
       <c r="D156" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L156" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>412</v>
       </c>
@@ -6087,8 +6561,11 @@
       <c r="D157" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L157" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>412</v>
       </c>
@@ -6101,8 +6578,11 @@
       <c r="D158" s="4" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="L158" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>412</v>
       </c>
@@ -6116,8 +6596,11 @@
         <v>581</v>
       </c>
       <c r="E159" s="5"/>
-    </row>
-    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L159" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>412</v>
       </c>
@@ -6131,8 +6614,11 @@
         <v>568</v>
       </c>
       <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L160" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>412</v>
       </c>
@@ -6145,8 +6631,11 @@
       <c r="D161" s="4" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="L161" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>412</v>
       </c>
@@ -6159,8 +6648,11 @@
       <c r="D162" s="4" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L162" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>412</v>
       </c>
@@ -6173,8 +6665,11 @@
       <c r="D163" s="4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L163" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>412</v>
       </c>
@@ -6187,8 +6682,11 @@
       <c r="D164" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L164" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>495</v>
       </c>
@@ -6198,8 +6696,11 @@
       <c r="C165" s="4" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L165" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>100</v>
       </c>
@@ -6212,8 +6713,11 @@
       <c r="D166" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L166" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>371</v>
       </c>
@@ -6226,8 +6730,11 @@
       <c r="D167" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L167" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>371</v>
       </c>
@@ -6240,8 +6747,11 @@
       <c r="D168" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L168" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>371</v>
       </c>
@@ -6254,8 +6764,11 @@
       <c r="D169" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L169" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>371</v>
       </c>
@@ -6268,8 +6781,11 @@
       <c r="D170" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L170" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>371</v>
       </c>
@@ -6282,8 +6798,11 @@
       <c r="D171" s="4" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L171" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>371</v>
       </c>
@@ -6299,8 +6818,11 @@
       <c r="F172" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L172" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>371</v>
       </c>
@@ -6313,16 +6835,22 @@
       <c r="D173" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L173" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>371</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L174" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>371</v>
       </c>
@@ -6335,8 +6863,11 @@
       <c r="D175" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L175" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>371</v>
       </c>
@@ -6349,8 +6880,11 @@
       <c r="D176" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L176" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>418</v>
       </c>
@@ -6366,8 +6900,11 @@
       <c r="F177" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L177" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>414</v>
       </c>
@@ -6380,8 +6917,11 @@
       <c r="D178" s="4" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L178" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>102</v>
       </c>
@@ -6400,8 +6940,11 @@
       <c r="F179" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L179" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>102</v>
       </c>
@@ -6411,8 +6954,11 @@
       <c r="C180" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L180" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>415</v>
       </c>
@@ -6425,8 +6971,11 @@
       <c r="D181" s="4" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L181" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>365</v>
       </c>
@@ -6439,8 +6988,11 @@
       <c r="D182" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L182" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>365</v>
       </c>
@@ -6453,8 +7005,11 @@
       <c r="D183" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L183" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>365</v>
       </c>
@@ -6467,8 +7022,11 @@
       <c r="D184" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L184" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>365</v>
       </c>
@@ -6481,8 +7039,11 @@
       <c r="D185" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L185" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>365</v>
       </c>
@@ -6495,8 +7056,11 @@
       <c r="D186" s="4" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L186" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>388</v>
       </c>
@@ -6509,8 +7073,11 @@
       <c r="D187" s="4" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L187" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>388</v>
       </c>
@@ -6523,8 +7090,11 @@
       <c r="D188" s="4" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L188" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>388</v>
       </c>
@@ -6537,8 +7107,11 @@
       <c r="D189" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L189" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>388</v>
       </c>
@@ -6551,8 +7124,11 @@
       <c r="D190" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L190" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>388</v>
       </c>
@@ -6565,8 +7141,11 @@
       <c r="D191" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L191" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>388</v>
       </c>
@@ -6579,8 +7158,11 @@
       <c r="D192" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L192" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>388</v>
       </c>
@@ -6593,8 +7175,11 @@
       <c r="D193" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L193" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>388</v>
       </c>
@@ -6607,8 +7192,11 @@
       <c r="D194" s="4" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L194" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>388</v>
       </c>
@@ -6621,8 +7209,11 @@
       <c r="D195" s="4" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L195" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>388</v>
       </c>
@@ -6635,8 +7226,11 @@
       <c r="D196" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L196" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>388</v>
       </c>
@@ -6649,8 +7243,11 @@
       <c r="D197" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L197" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>388</v>
       </c>
@@ -6663,8 +7260,11 @@
       <c r="D198" s="4" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L198" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>388</v>
       </c>
@@ -6677,8 +7277,11 @@
       <c r="D199" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L199" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>388</v>
       </c>
@@ -6691,8 +7294,11 @@
       <c r="D200" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L200" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>388</v>
       </c>
@@ -6705,8 +7311,11 @@
       <c r="D201" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L201" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>388</v>
       </c>
@@ -6719,8 +7328,11 @@
       <c r="D202" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L202" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>388</v>
       </c>
@@ -6733,8 +7345,11 @@
       <c r="D203" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L203" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>388</v>
       </c>
@@ -6747,8 +7362,11 @@
       <c r="D204" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L204" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>388</v>
       </c>
@@ -6761,8 +7379,11 @@
       <c r="D205" s="4" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L205" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>388</v>
       </c>
@@ -6775,8 +7396,11 @@
       <c r="D206" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L206" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>388</v>
       </c>
@@ -6789,8 +7413,11 @@
       <c r="D207" s="4" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L207" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>388</v>
       </c>
@@ -6800,8 +7427,11 @@
       <c r="C208" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L208" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>396</v>
       </c>
@@ -6811,8 +7441,11 @@
       <c r="C209" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L209" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>329</v>
       </c>
@@ -6822,8 +7455,11 @@
       <c r="C210" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L210" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>376</v>
       </c>
@@ -6836,8 +7472,11 @@
       <c r="D211" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L211" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>407</v>
       </c>
@@ -6853,8 +7492,11 @@
       <c r="F212" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L212" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>435</v>
       </c>
@@ -6867,8 +7509,11 @@
       <c r="D213" s="4" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L213" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>373</v>
       </c>
@@ -6881,8 +7526,11 @@
       <c r="D214" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L214" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>424</v>
       </c>
@@ -6895,8 +7543,11 @@
       <c r="D215" s="4" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L215" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>424</v>
       </c>
@@ -6909,8 +7560,11 @@
       <c r="D216" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L216" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>124</v>
       </c>
@@ -6926,8 +7580,11 @@
       <c r="G217" s="4" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L217" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>124</v>
       </c>
@@ -6940,8 +7597,11 @@
       <c r="D218" s="4" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L218" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>419</v>
       </c>
@@ -6954,8 +7614,11 @@
       <c r="D219" s="4" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L219" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>419</v>
       </c>
@@ -6965,8 +7628,11 @@
       <c r="C220" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L220" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>419</v>
       </c>
@@ -6979,8 +7645,11 @@
       <c r="D221" s="4" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L221" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>419</v>
       </c>
@@ -6996,8 +7665,11 @@
       <c r="F222" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L222" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>419</v>
       </c>
@@ -7007,8 +7679,11 @@
       <c r="C223" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L223" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>419</v>
       </c>
@@ -7018,8 +7693,11 @@
       <c r="C224" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L224" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>445</v>
       </c>
@@ -7032,8 +7710,11 @@
       <c r="D225" s="4" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L225" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>290</v>
       </c>
@@ -7043,8 +7724,11 @@
       <c r="C226" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L226" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>291</v>
       </c>
@@ -7060,8 +7744,11 @@
       <c r="F227" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L227" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>384</v>
       </c>
@@ -7074,8 +7761,11 @@
       <c r="D228" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L228" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>384</v>
       </c>
@@ -7088,8 +7778,11 @@
       <c r="D229" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L229" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>384</v>
       </c>
@@ -7102,8 +7795,11 @@
       <c r="D230" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L230" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>384</v>
       </c>
@@ -7116,8 +7812,11 @@
       <c r="D231" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L231" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>384</v>
       </c>
@@ -7130,8 +7829,11 @@
       <c r="D232" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L232" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>384</v>
       </c>
@@ -7144,8 +7846,11 @@
       <c r="D233" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L233" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>384</v>
       </c>
@@ -7158,8 +7863,11 @@
       <c r="D234" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L234" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>384</v>
       </c>
@@ -7172,8 +7880,11 @@
       <c r="D235" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L235" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>384</v>
       </c>
@@ -7186,8 +7897,11 @@
       <c r="D236" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L236" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>384</v>
       </c>
@@ -7200,8 +7914,11 @@
       <c r="D237" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L237" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>384</v>
       </c>
@@ -7214,8 +7931,11 @@
       <c r="D238" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L238" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>384</v>
       </c>
@@ -7228,8 +7948,11 @@
       <c r="D239" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L239" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>455</v>
       </c>
@@ -7242,8 +7965,11 @@
       <c r="D240" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L240" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>292</v>
       </c>
@@ -7253,8 +7979,11 @@
       <c r="C241" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L241" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>293</v>
       </c>
@@ -7264,8 +7993,11 @@
       <c r="C242" s="4" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L242" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>469</v>
       </c>
@@ -7275,8 +8007,11 @@
       <c r="G243" s="4" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L243" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>421</v>
       </c>
@@ -7289,8 +8024,11 @@
       <c r="D244" s="4" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L244" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>446</v>
       </c>
@@ -7303,8 +8041,11 @@
       <c r="D245" s="4" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L245" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>363</v>
       </c>
@@ -7317,8 +8058,11 @@
       <c r="D246" s="4" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L246" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>363</v>
       </c>
@@ -7331,8 +8075,11 @@
       <c r="D247" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L247" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>363</v>
       </c>
@@ -7345,8 +8092,11 @@
       <c r="D248" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L248" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>363</v>
       </c>
@@ -7359,8 +8109,11 @@
       <c r="D249" s="4" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L249" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>363</v>
       </c>
@@ -7379,8 +8132,11 @@
       <c r="F250" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L250" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>363</v>
       </c>
@@ -7390,8 +8146,11 @@
       <c r="C251" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L251" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>363</v>
       </c>
@@ -7404,8 +8163,11 @@
       <c r="D252" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L252" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>363</v>
       </c>
@@ -7418,8 +8180,11 @@
       <c r="D253" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L253" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>494</v>
       </c>
@@ -7429,8 +8194,11 @@
       <c r="C254" s="4" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L254" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>434</v>
       </c>
@@ -7443,8 +8211,11 @@
       <c r="D255" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L255" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>434</v>
       </c>
@@ -7457,8 +8228,11 @@
       <c r="D256" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L256" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>368</v>
       </c>
@@ -7471,8 +8245,11 @@
       <c r="D257" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L257" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>368</v>
       </c>
@@ -7485,8 +8262,11 @@
       <c r="D258" s="4" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L258" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>368</v>
       </c>
@@ -7499,8 +8279,11 @@
       <c r="D259" s="4" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L259" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>368</v>
       </c>
@@ -7513,8 +8296,11 @@
       <c r="D260" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L260" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>447</v>
       </c>
@@ -7527,8 +8313,11 @@
       <c r="D261" s="4" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L261" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>447</v>
       </c>
@@ -7541,8 +8330,11 @@
       <c r="D262" s="4" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L262" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>447</v>
       </c>
@@ -7555,8 +8347,11 @@
       <c r="D263" s="4" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L263" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>498</v>
       </c>
@@ -7566,8 +8361,11 @@
       <c r="C264" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L264" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>422</v>
       </c>
@@ -7580,8 +8378,11 @@
       <c r="D265" s="4" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L265" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>345</v>
       </c>
@@ -7591,8 +8392,11 @@
       <c r="C266" s="4" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L266" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>385</v>
       </c>
@@ -7605,8 +8409,11 @@
       <c r="D267" s="4" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L267" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>385</v>
       </c>
@@ -7619,8 +8426,11 @@
       <c r="D268" s="4" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L268" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>496</v>
       </c>
@@ -7630,8 +8440,11 @@
       <c r="C269" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L269" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>150</v>
       </c>
@@ -7644,8 +8457,11 @@
       <c r="D270" s="4" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L270" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>152</v>
       </c>
@@ -7655,8 +8471,11 @@
       <c r="C271" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L271" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>152</v>
       </c>
@@ -7669,8 +8488,11 @@
       <c r="D272" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L272" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>152</v>
       </c>
@@ -7683,8 +8505,11 @@
       <c r="D273" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L273" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>152</v>
       </c>
@@ -7697,8 +8522,11 @@
       <c r="D274" s="4" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L274" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>152</v>
       </c>
@@ -7711,8 +8539,11 @@
       <c r="D275" s="4" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L275" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>152</v>
       </c>
@@ -7725,8 +8556,11 @@
       <c r="D276" s="4" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L276" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>152</v>
       </c>
@@ -7739,8 +8573,11 @@
       <c r="D277" s="4" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L277" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>152</v>
       </c>
@@ -7753,8 +8590,11 @@
       <c r="D278" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L278" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>152</v>
       </c>
@@ -7767,8 +8607,11 @@
       <c r="D279" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L279" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>152</v>
       </c>
@@ -7781,8 +8624,11 @@
       <c r="D280" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L280" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>152</v>
       </c>
@@ -7795,8 +8641,11 @@
       <c r="D281" s="4" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L281" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>152</v>
       </c>
@@ -7809,8 +8658,11 @@
       <c r="D282" s="4" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L282" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>152</v>
       </c>
@@ -7820,8 +8672,11 @@
       <c r="C283" s="4" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L283" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>152</v>
       </c>
@@ -7834,8 +8689,11 @@
       <c r="D284" s="4" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L284" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>152</v>
       </c>
@@ -7848,8 +8706,11 @@
       <c r="D285" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L285" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>152</v>
       </c>
@@ -7862,8 +8723,11 @@
       <c r="D286" s="4" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L286" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>152</v>
       </c>
@@ -7873,8 +8737,11 @@
       <c r="C287" s="4" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L287" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>152</v>
       </c>
@@ -7884,8 +8751,11 @@
       <c r="C288" s="4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L288" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>152</v>
       </c>
@@ -7895,8 +8765,11 @@
       <c r="C289" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L289" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>152</v>
       </c>
@@ -7909,8 +8782,11 @@
       <c r="D290" s="4" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L290" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>152</v>
       </c>
@@ -7923,16 +8799,22 @@
       <c r="D291" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L291" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L292" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>152</v>
       </c>
@@ -7945,8 +8827,11 @@
       <c r="D293" s="4" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L293" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>152</v>
       </c>
@@ -7959,8 +8844,11 @@
       <c r="D294" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L294" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>152</v>
       </c>
@@ -7973,8 +8861,11 @@
       <c r="D295" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L295" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>152</v>
       </c>
@@ -7987,8 +8878,11 @@
       <c r="D296" s="4" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L296" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>152</v>
       </c>
@@ -8001,8 +8895,11 @@
       <c r="D297" s="4" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L297" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>152</v>
       </c>
@@ -8015,8 +8912,11 @@
       <c r="D298" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L298" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>152</v>
       </c>
@@ -8029,8 +8929,11 @@
       <c r="D299" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L299" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>152</v>
       </c>
@@ -8043,8 +8946,11 @@
       <c r="D300" s="4" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L300" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>152</v>
       </c>
@@ -8054,8 +8960,11 @@
       <c r="D301" s="4" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L301" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>152</v>
       </c>
@@ -8068,8 +8977,11 @@
       <c r="D302" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L302" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>378</v>
       </c>
@@ -8079,8 +8991,11 @@
       <c r="C303" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L303" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>425</v>
       </c>
@@ -8093,8 +9008,11 @@
       <c r="D304" s="4" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L304" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>298</v>
       </c>
@@ -8113,8 +9031,11 @@
       <c r="F305" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L305" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>298</v>
       </c>
@@ -8127,8 +9048,11 @@
       <c r="D306" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L306" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>497</v>
       </c>
@@ -8138,8 +9062,11 @@
       <c r="C307" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L307" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>156</v>
       </c>
@@ -8152,8 +9079,11 @@
       <c r="D308" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L308" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>299</v>
       </c>
@@ -8163,8 +9093,11 @@
       <c r="C309" s="4" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L309" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>448</v>
       </c>
@@ -8177,8 +9110,11 @@
       <c r="D310" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L310" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>157</v>
       </c>
@@ -8191,8 +9127,11 @@
       <c r="D311" s="4" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L311" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>157</v>
       </c>
@@ -8205,8 +9144,11 @@
       <c r="D312" s="4" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L312" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>157</v>
       </c>
@@ -8219,8 +9161,11 @@
       <c r="D313" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L313" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>157</v>
       </c>
@@ -8233,8 +9178,11 @@
       <c r="D314" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L314" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>302</v>
       </c>
@@ -8250,8 +9198,11 @@
       <c r="F315" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L315" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>304</v>
       </c>
@@ -8267,8 +9218,11 @@
       <c r="F316" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L316" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>431</v>
       </c>
@@ -8284,8 +9238,11 @@
       <c r="F317" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L317" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>432</v>
       </c>
@@ -8298,8 +9255,11 @@
       <c r="D318" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L318" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>432</v>
       </c>
@@ -8312,8 +9272,11 @@
       <c r="D319" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L319" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>432</v>
       </c>
@@ -8326,8 +9289,11 @@
       <c r="D320" s="4" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L320" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>436</v>
       </c>
@@ -8340,8 +9306,11 @@
       <c r="D321" s="4" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L321" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>436</v>
       </c>
@@ -8354,8 +9323,11 @@
       <c r="D322" s="4" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L322" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>374</v>
       </c>
@@ -8368,8 +9340,11 @@
       <c r="D323" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L323" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>430</v>
       </c>
@@ -8382,8 +9357,11 @@
       <c r="D324" s="4" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L324" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>172</v>
       </c>
@@ -8396,8 +9374,11 @@
       <c r="D325" s="4" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L325" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>438</v>
       </c>
@@ -8410,8 +9391,11 @@
       <c r="D326" s="4" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L326" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>456</v>
       </c>
@@ -8424,8 +9408,11 @@
       <c r="D327" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L327" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>381</v>
       </c>
@@ -8438,8 +9425,11 @@
       <c r="D328" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L328" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>381</v>
       </c>
@@ -8452,8 +9442,11 @@
       <c r="D329" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L329" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>381</v>
       </c>
@@ -8466,8 +9459,11 @@
       <c r="D330" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L330" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>381</v>
       </c>
@@ -8480,8 +9476,11 @@
       <c r="D331" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L331" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>489</v>
       </c>
@@ -8491,8 +9490,11 @@
       <c r="C332" s="4" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L332" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>465</v>
       </c>
@@ -8505,16 +9507,22 @@
       <c r="F333" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L333" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L334" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>307</v>
       </c>
@@ -8524,8 +9532,11 @@
       <c r="C335" s="4" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L335" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>377</v>
       </c>
@@ -8538,8 +9549,11 @@
       <c r="D336" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L336" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>377</v>
       </c>
@@ -8558,8 +9572,11 @@
       <c r="H337" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L337" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>377</v>
       </c>
@@ -8578,8 +9595,11 @@
       <c r="H338" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L338" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>377</v>
       </c>
@@ -8598,8 +9618,11 @@
       <c r="H339" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L339" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>377</v>
       </c>
@@ -8618,8 +9641,11 @@
       <c r="H340" s="4" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L340" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>493</v>
       </c>
@@ -8632,8 +9658,11 @@
       <c r="D341" s="4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L341" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>493</v>
       </c>
@@ -8646,8 +9675,11 @@
       <c r="D342" s="4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L342" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>493</v>
       </c>
@@ -8660,8 +9692,11 @@
       <c r="D343" s="4" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L343" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>490</v>
       </c>
@@ -8674,8 +9709,11 @@
       <c r="D344" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L344" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>309</v>
       </c>
@@ -8694,8 +9732,11 @@
       <c r="F345" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L345" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>178</v>
       </c>
@@ -8708,8 +9749,11 @@
       <c r="D346" s="4" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L346" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>178</v>
       </c>
@@ -8722,8 +9766,11 @@
       <c r="D347" s="4" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L347" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>178</v>
       </c>
@@ -8736,8 +9783,11 @@
       <c r="D348" s="4" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L348" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>403</v>
       </c>
@@ -8750,8 +9800,11 @@
       <c r="F349" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L349" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>457</v>
       </c>
@@ -8764,8 +9817,11 @@
       <c r="D350" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L350" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>179</v>
       </c>
@@ -8778,8 +9834,11 @@
       <c r="D351" s="4" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L351" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>439</v>
       </c>
@@ -8792,8 +9851,11 @@
       <c r="D352" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L352" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>439</v>
       </c>
@@ -8806,8 +9868,11 @@
       <c r="D353" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L353" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>439</v>
       </c>
@@ -8820,8 +9885,11 @@
       <c r="D354" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L354" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>404</v>
       </c>
@@ -8834,8 +9902,11 @@
       <c r="D355" s="4" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L355" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>404</v>
       </c>
@@ -8848,8 +9919,11 @@
       <c r="D356" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L356" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>404</v>
       </c>
@@ -8862,8 +9936,11 @@
       <c r="D357" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L357" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>404</v>
       </c>
@@ -8876,8 +9953,11 @@
       <c r="F358" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L358" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>404</v>
       </c>
@@ -8890,8 +9970,11 @@
       <c r="D359" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L359" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>404</v>
       </c>
@@ -8904,8 +9987,11 @@
       <c r="D360" s="4" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L360" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>404</v>
       </c>
@@ -8918,8 +10004,11 @@
       <c r="D361" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L361" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>404</v>
       </c>
@@ -8932,8 +10021,11 @@
       <c r="D362" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L362" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>404</v>
       </c>
@@ -8946,8 +10038,11 @@
       <c r="D363" s="4" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L363" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>404</v>
       </c>
@@ -8960,8 +10055,11 @@
       <c r="D364" s="4" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L364" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>404</v>
       </c>
@@ -8974,8 +10072,11 @@
       <c r="D365" s="4" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L365" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>404</v>
       </c>
@@ -8988,8 +10089,11 @@
       <c r="D366" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L366" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>404</v>
       </c>
@@ -9002,8 +10106,11 @@
       <c r="D367" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L367" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>404</v>
       </c>
@@ -9016,8 +10123,11 @@
       <c r="D368" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L368" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>404</v>
       </c>
@@ -9030,8 +10140,11 @@
       <c r="D369" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L369" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>404</v>
       </c>
@@ -9044,8 +10157,11 @@
       <c r="D370" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L370" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>404</v>
       </c>
@@ -9058,8 +10174,11 @@
       <c r="D371" s="4" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L371" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>404</v>
       </c>
@@ -9072,8 +10191,11 @@
       <c r="D372" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L372" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>416</v>
       </c>
@@ -9086,8 +10208,11 @@
       <c r="D373" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L373" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>416</v>
       </c>
@@ -9100,8 +10225,11 @@
       <c r="D374" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L374" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>416</v>
       </c>
@@ -9114,8 +10242,11 @@
       <c r="D375" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L375" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>428</v>
       </c>
@@ -9128,8 +10259,11 @@
       <c r="D376" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L376" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>458</v>
       </c>
@@ -9142,8 +10276,11 @@
       <c r="D377" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L377" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>475</v>
       </c>
@@ -9153,8 +10290,11 @@
       <c r="C378" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L378" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>475</v>
       </c>
@@ -9164,8 +10304,11 @@
       <c r="C379" s="4" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L379" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>310</v>
       </c>
@@ -9181,8 +10324,11 @@
       <c r="F380" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L380" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>440</v>
       </c>
@@ -9195,8 +10341,11 @@
       <c r="D381" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L381" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>440</v>
       </c>
@@ -9209,8 +10358,11 @@
       <c r="D382" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L382" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>440</v>
       </c>
@@ -9223,8 +10375,11 @@
       <c r="D383" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L383" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>201</v>
       </c>
@@ -9237,8 +10392,11 @@
       <c r="D384" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L384" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>364</v>
       </c>
@@ -9254,8 +10412,11 @@
       <c r="F385" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L385" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>364</v>
       </c>
@@ -9265,8 +10426,11 @@
       <c r="C386" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L386" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>364</v>
       </c>
@@ -9279,8 +10443,11 @@
       <c r="D387" s="4" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L387" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>202</v>
       </c>
@@ -9293,8 +10460,11 @@
       <c r="D388" s="4" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L388" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>202</v>
       </c>
@@ -9307,8 +10477,11 @@
       <c r="D389" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L389" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>202</v>
       </c>
@@ -9321,8 +10494,11 @@
       <c r="D390" s="4" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L390" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>202</v>
       </c>
@@ -9335,8 +10511,11 @@
       <c r="D391" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L391" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>202</v>
       </c>
@@ -9349,8 +10528,11 @@
       <c r="D392" s="4" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L392" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>367</v>
       </c>
@@ -9363,8 +10545,11 @@
       <c r="D393" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L393" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>367</v>
       </c>
@@ -9377,8 +10562,11 @@
       <c r="D394" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L394" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>367</v>
       </c>
@@ -9391,8 +10579,11 @@
       <c r="D395" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L395" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>367</v>
       </c>
@@ -9405,8 +10596,11 @@
       <c r="D396" s="4" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L396" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>367</v>
       </c>
@@ -9419,8 +10613,11 @@
       <c r="D397" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L397" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>367</v>
       </c>
@@ -9433,8 +10630,11 @@
       <c r="D398" s="4" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L398" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>367</v>
       </c>
@@ -9447,8 +10647,11 @@
       <c r="D399" s="4" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L399" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>367</v>
       </c>
@@ -9461,8 +10664,11 @@
       <c r="D400" s="4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L400" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>367</v>
       </c>
@@ -9472,8 +10678,11 @@
       <c r="C401" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L401" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>367</v>
       </c>
@@ -9486,8 +10695,11 @@
       <c r="D402" s="4" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L402" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>459</v>
       </c>
@@ -9500,8 +10712,11 @@
       <c r="D403" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L403" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>460</v>
       </c>
@@ -9514,8 +10729,11 @@
       <c r="D404" s="4" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L404" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>470</v>
       </c>
@@ -9531,8 +10749,11 @@
       <c r="G405" s="4" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L405" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>442</v>
       </c>
@@ -9545,8 +10766,11 @@
       <c r="D406" s="4" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L406" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>443</v>
       </c>
@@ -9556,8 +10780,11 @@
       <c r="C407" s="4" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L407" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>464</v>
       </c>
@@ -9576,8 +10803,11 @@
       <c r="H408" s="4" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L408" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>461</v>
       </c>
@@ -9590,8 +10820,11 @@
       <c r="D409" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L409" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>417</v>
       </c>
@@ -9604,8 +10837,11 @@
       <c r="D410" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L410" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>417</v>
       </c>
@@ -9618,8 +10854,11 @@
       <c r="D411" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L411" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>417</v>
       </c>
@@ -9632,8 +10871,11 @@
       <c r="D412" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L412" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>417</v>
       </c>
@@ -9646,8 +10888,11 @@
       <c r="D413" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L413" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>314</v>
       </c>
@@ -9660,8 +10905,11 @@
       <c r="G414" s="4" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L414" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>319</v>
       </c>
@@ -9680,8 +10928,11 @@
       <c r="G415" s="4" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L415" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>236</v>
       </c>
@@ -9694,8 +10945,11 @@
       <c r="D416" s="4" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L416" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>236</v>
       </c>
@@ -9708,8 +10962,11 @@
       <c r="D417" s="4" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L417" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>236</v>
       </c>
@@ -9722,8 +10979,11 @@
       <c r="D418" s="4" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L418" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>236</v>
       </c>
@@ -9736,8 +10996,11 @@
       <c r="D419" s="4" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L419" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>236</v>
       </c>
@@ -9750,8 +11013,11 @@
       <c r="D420" s="4" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L420" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>398</v>
       </c>
@@ -9764,8 +11030,11 @@
       <c r="D421" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L421" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>315</v>
       </c>
@@ -9781,8 +11050,11 @@
       <c r="F422" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L422" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>362</v>
       </c>
@@ -9795,8 +11067,11 @@
       <c r="D423" s="4" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L423" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>362</v>
       </c>
@@ -9809,8 +11084,11 @@
       <c r="D424" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L424" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>362</v>
       </c>
@@ -9823,8 +11101,11 @@
       <c r="D425" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L425" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>362</v>
       </c>
@@ -9837,8 +11118,11 @@
       <c r="D426" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L426" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>427</v>
       </c>
@@ -9851,8 +11135,11 @@
       <c r="D427" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L427" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>449</v>
       </c>
@@ -9865,16 +11152,22 @@
       <c r="D428" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L428" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>471</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L429" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>245</v>
       </c>
@@ -9887,8 +11180,11 @@
       <c r="D430" s="4" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L430" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>246</v>
       </c>
@@ -9901,8 +11197,11 @@
       <c r="D431" s="4" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L431" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>330</v>
       </c>
@@ -9912,8 +11211,11 @@
       <c r="C432" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L432" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>462</v>
       </c>
@@ -9926,8 +11228,11 @@
       <c r="D433" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L433" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>463</v>
       </c>
@@ -9940,8 +11245,11 @@
       <c r="D434" s="4" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L434" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>316</v>
       </c>
@@ -9957,13 +11265,19 @@
       <c r="F435" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L435" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>347</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>950</v>
       </c>
     </row>
   </sheetData>
